--- a/core/utils/docs_proj_p/distgradeunificada19.xlsx
+++ b/core/utils/docs_proj_p/distgradeunificada19.xlsx
@@ -606,7 +606,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="R11" activeCellId="0" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1017,37 +1017,37 @@
         <v>22</v>
       </c>
       <c r="G8" s="11" t="n">
-        <v>710</v>
+        <v>1100</v>
       </c>
       <c r="H8" s="11" t="n">
-        <v>710</v>
+        <v>1101</v>
       </c>
       <c r="I8" s="11" t="n">
-        <v>710</v>
+        <v>1102</v>
       </c>
       <c r="J8" s="11" t="n">
-        <v>710</v>
+        <v>1103</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>710</v>
+        <v>1104</v>
       </c>
       <c r="L8" s="11" t="n">
-        <v>710</v>
+        <v>1105</v>
       </c>
       <c r="M8" s="11" t="n">
-        <v>710</v>
+        <v>1106</v>
       </c>
       <c r="N8" s="11" t="n">
-        <v>710</v>
+        <v>1107</v>
       </c>
       <c r="O8" s="11" t="n">
-        <v>710</v>
+        <v>1108</v>
       </c>
       <c r="P8" s="11" t="n">
-        <v>710</v>
+        <v>1109</v>
       </c>
       <c r="Q8" s="11" t="n">
-        <v>710</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
